--- a/Etudes Ultra-son/etalonnage.xlsx
+++ b/Etudes Ultra-son/etalonnage.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flolo\Dropbox\PRD Balises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\PRD Balises\Etudes Ultra-son\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Graphique1" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -310,6 +310,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4ED5-4656-A699-1C7948C9167C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -380,6 +385,92 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4ED5-4656-A699-1C7948C9167C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objet reel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$F$5:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$5:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4ED5-4656-A699-1C7948C9167C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -524,6 +615,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -560,7 +655,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -571,10 +666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9317935" cy="6087717"/>
+    <xdr:ext cx="9290137" cy="6067295"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -877,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1109,7 @@
         <v>3090</v>
       </c>
       <c r="F9">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="G9">
         <v>2180</v>
